--- a/biology/Botanique/Mammillaria_albilanata/Mammillaria_albilanata.xlsx
+++ b/biology/Botanique/Mammillaria_albilanata/Mammillaria_albilanata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria albilanata, aussi appelé Biznaguita en espagnol, est une espèce de cactus du genre Mammillaria endémique du Sud-Ouest du Mexique, plus particulièrement dans les États de Chiapas, Colima, Guerrero, Oaxaca et Puebla.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est constituée d'un tronc central, couvert d'épines blanches placées en étoile autour de nœuds doublées de poils. Ces poils servent principalement à réguler la consommation et la retenue de l'eau dans la plante, une meilleure régulation de la température et une barrière pour certains insectes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est constituée d'un tronc central, couvert d'épines blanches placées en étoile autour de nœuds doublées de poils. Ces poils servent principalement à réguler la consommation et la retenue de l'eau dans la plante, une meilleure régulation de la température et une barrière pour certains insectes.
 La floraison (en Europe et plus généralement au niveau du tropique du Cancer) se fait de mars à juillet. Les fleurs d'albilanata se présentent la plupart du temps en couronne, sur la partie supérieure de la plante, exposée à la lumière du soleil et aux insectes et oiseaux pollinisateurs. Elles sont de différentes nuances rouge carmin.
-Cette espèce contient deux sous-espèces: Mammillaria albilanata oaxacana[3] et M. albilanata reppenhagenii[4],[5].
+Cette espèce contient deux sous-espèces: Mammillaria albilanata oaxacana et M. albilanata reppenhagenii,.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme provient de deux mots latins: 
-Mammillaria: en forme de mamelle, proéminence[6].
+Mammillaria: en forme de mamelle, proéminence.
 et 
-albilanata (lui-même formé de deux mots: albi et lana): couvert de laine blanche[7].
+albilanata (lui-même formé de deux mots: albi et lana): couvert de laine blanche.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M.albilanata croît naturellement entre 500 et 2 200 m d'altitude[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M.albilanata croît naturellement entre 500 et 2 200 m d'altitude.
 </t>
         </is>
       </c>
